--- a/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_732_2024-05-30_PH_120/output.xlsx
+++ b/results/MLP_tree/hidden_size_256/s_MLP_tree_t_simglucose_data_insilico_seed_732_2024-05-30_PH_120/output.xlsx
@@ -483,12 +483,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.016849767</t>
+          <t>0.006859408</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.07323783</t>
+          <t>0.06654082</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -515,19 +515,19 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0.015510326</t>
+          <t>0.012828832</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.071899846</t>
+          <t>0.063203536</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -547,12 +547,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.062093344</t>
+          <t>0.080097176</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>0.19426353</t>
+          <t>0.21114916</t>
         </is>
       </c>
       <c r="D4" t="n">
@@ -579,12 +579,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.06358281</t>
+          <t>0.06447828</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>0.18427962</t>
+          <t>0.18466124</t>
         </is>
       </c>
       <c r="D5" t="n">
